--- a/data/import/flashcard.xlsx
+++ b/data/import/flashcard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\svNam4\HK2\4KidStudy\4kidstudy-backend\data\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807E575B-61B2-4986-894C-5FFB2CF13B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BC5D38-E224-439B-A104-18951F87D260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ED013ED6-0AA4-43BD-A953-7C9607C93FE0}"/>
+    <workbookView xWindow="5625" yWindow="3900" windowWidth="21600" windowHeight="11235" xr2:uid="{ED013ED6-0AA4-43BD-A953-7C9607C93FE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,10 +83,10 @@
     <t>Xin chào, tôi là Bill</t>
   </si>
   <si>
-    <t>g1-u3-Apple.png</t>
-  </si>
-  <si>
     <t>g1-u6-exWashing.mp3</t>
+  </si>
+  <si>
+    <t>g1-u2-car.png</t>
   </si>
 </sst>
 </file>
@@ -461,10 +461,14 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -506,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
         <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -529,10 +533,10 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
         <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/data/import/flashcard.xlsx
+++ b/data/import/flashcard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\svNam4\HK2\4KidStudy\4kidstudy-backend\data\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BC5D38-E224-439B-A104-18951F87D260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F185CDB-C7CA-4C0F-ACAB-F9E2DCDE2EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5625" yWindow="3900" windowWidth="21600" windowHeight="11235" xr2:uid="{ED013ED6-0AA4-43BD-A953-7C9607C93FE0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ED013ED6-0AA4-43BD-A953-7C9607C93FE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>term</t>
   </si>
@@ -59,34 +59,43 @@
     <t>audio</t>
   </si>
   <si>
-    <t>Bike</t>
-  </si>
-  <si>
-    <t>/baik/</t>
-  </si>
-  <si>
-    <t>Xe đạp</t>
-  </si>
-  <si>
     <t>\n</t>
   </si>
   <si>
-    <t>Bill</t>
-  </si>
-  <si>
-    <t>/bil/</t>
-  </si>
-  <si>
     <t>Hi, I’m Bill.</t>
   </si>
   <si>
     <t>Xin chào, tôi là Bill</t>
   </si>
   <si>
-    <t>g1-u6-exWashing.mp3</t>
-  </si>
-  <si>
-    <t>g1-u2-car.png</t>
+    <t>Hi</t>
+  </si>
+  <si>
+    <t>g3-u1-hi.png</t>
+  </si>
+  <si>
+    <t>g3-u1-hi.mp3</t>
+  </si>
+  <si>
+    <t>Bye</t>
+  </si>
+  <si>
+    <t>g3-u1-bye.png</t>
+  </si>
+  <si>
+    <t>g3-u1-bye.mp3</t>
+  </si>
+  <si>
+    <t>Xin chào</t>
+  </si>
+  <si>
+    <t>Tạm biệt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /haɪ/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /baɪ/</t>
   </si>
 </sst>
 </file>
@@ -122,8 +131,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,7 +473,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,45 +507,45 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>

--- a/data/import/flashcard.xlsx
+++ b/data/import/flashcard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\svNam4\HK2\4KidStudy\4kidstudy-backend\data\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F185CDB-C7CA-4C0F-ACAB-F9E2DCDE2EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5660C91-4A22-4453-8977-02E3546BB7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ED013ED6-0AA4-43BD-A953-7C9607C93FE0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>term</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>audio</t>
-  </si>
-  <si>
-    <t>\n</t>
   </si>
   <si>
     <t>Hi, I’m Bill.</t>
@@ -473,7 +470,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,48 +504,42 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
